--- a/biology/Histoire de la zoologie et de la botanique/Albert_Charles_Peale/Albert_Charles_Peale.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albert_Charles_Peale/Albert_Charles_Peale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albert Charles Peale est un  géologue et un  paléobotaniste américain, né le 1er avril 1849 à Heckscherville (Pennsylvanie) et mort le 5 décembre 1914.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le arrière-petit-fils du peintre et naturaliste Charles Willson Peale (1741-1827). Il fait ses études au Central High School de Philadelphie où il obtient son Bachelor of Arts en 1868 puis son Master of Arts en 1873. À l’université de Pennsylvanie, il obtient en 1871 un titre de docteur en médecine.
 Il se marie avec Emily W. Wiswell le 23 décembre 1875. Il travaille, de 1871 à 1879, comme  géologue et minéralogiste au sein de l’U.S. Geology and Geography Survey of Territories. Puis, de 1883 à 1898, comme géologue à l’U.S. Geology Survey. À partir de 1898, il est assistant à la section de paléobotanique du National Museum of Natural History.
